--- a/biology/Zoologie/Imantodes_gemmistratus/Imantodes_gemmistratus.xlsx
+++ b/biology/Zoologie/Imantodes_gemmistratus/Imantodes_gemmistratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Imantodes gemmistratus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Imantodes gemmistratus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Mexique ;
 au Guatemala ;
 au Honduras ;
@@ -551,9 +565,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2013) :
 Imantodes gemmistratus gemmistratus (Cope, 1861)
 Imantodes gemmistratus gracillimus (Günther, 1895)
 Imantodes gemmistratus latistratus (Cope, 1887)
@@ -588,7 +604,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1861 : Contributions to the ophiology of Lower California, Mexico and Central America. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 292-306 (texte intégral).
 Cope, 1887 : Catalogue of batrachians and reptiles of Central America and Mexico. Bulletin of the United States National Museum, vol. 32, p. 1-98 (texte intégral).
